--- a/Miel_karo_camino_optico_variable.xlsx
+++ b/Miel_karo_camino_optico_variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10162880f15d5ba9/Documentos/ESFM/Laboratoriro II/Actividad óptica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{D44D5773-BEFF-4F2D-9F7D-0D6025E0CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F8D4E7F-4D92-440F-A72E-8DB49A87CA69}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{D44D5773-BEFF-4F2D-9F7D-0D6025E0CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017EC46F-592A-49C2-A427-B3CB51B9A9E8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15540" windowHeight="13056" xr2:uid="{064FE053-48FF-4056-BD54-23F917EA9060}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{064FE053-48FF-4056-BD54-23F917EA9060}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>lamda = 532nm</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Concentracion=64.2209gms</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>109°30'</t>
+  </si>
+  <si>
+    <t>camino_optico</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,160 +458,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E72989-ABA9-45FB-A4B9-4231719F5006}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>8.9861003778057107</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103.58329999999999</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>8.8741196746494193</v>
+      </c>
+      <c r="B3" s="2">
+        <v>104.667</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>8.7749643873921208</v>
+      </c>
+      <c r="B4" s="2">
+        <v>105.25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>8.6162636914152007</v>
+      </c>
+      <c r="B5" s="2">
+        <v>105.5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
         <v>7.3</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>103.58329999999999</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>104.667</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>105.25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>105.5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>8.4118963379252296</v>
+      </c>
+      <c r="B6" s="2">
+        <v>105.833</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C6" s="2">
-        <v>105.833</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>8.2042671823874596</v>
+      </c>
+      <c r="B7" s="2">
+        <v>106.417</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>106.417</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7.9063265806567804</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106.667</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>106.667</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7.48331477354788</v>
+      </c>
+      <c r="B9" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C9" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6.8818602136341003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>108.667</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>108.667</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>6.11882341631134</v>
+      </c>
+      <c r="B11" s="2">
+        <v>109.5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>